--- a/medicine/Psychotrope/Cellier_de_Clairvaux/Cellier_de_Clairvaux.xlsx
+++ b/medicine/Psychotrope/Cellier_de_Clairvaux/Cellier_de_Clairvaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cellier de Clairvaux ou Petit-Clairvaux est un cellier cistercien de style gothique primitif cistercien[1], fondé par l'Abbaye de Clairvaux au XIIIe siècle, dans le centre historique de Dijon en Côte-d'Or en Bourgogne-Franche-Comté. Actuelle salle municipale[2], il est classé aux monuments historiques depuis 1915, 1917, et 1921[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cellier de Clairvaux ou Petit-Clairvaux est un cellier cistercien de style gothique primitif cistercien, fondé par l'Abbaye de Clairvaux au XIIIe siècle, dans le centre historique de Dijon en Côte-d'Or en Bourgogne-Franche-Comté. Actuelle salle municipale, il est classé aux monuments historiques depuis 1915, 1917, et 1921.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grange monastique cistercienne de Dijon, surnommée « Petit-Clairvaux », est fondée au XIIIe siècle par l’Abbaye de Clairvaux (fille de l'Abbaye de Cîteaux du XIe siècle, fondée en 1115 à 100 km au nord-est de Dijon, par l'abbé dijonnais Bernard de Clairvaux (v1090-1153), en Champagne (province), aux portes du duché de Bourgogne).  
 			Monument Bernard de Clairvaux, de la Place Saint-Bernard voisine
 			Abbaye de Clairvaux (XIIe siècle)
 Proche entre autres de l'actuelle place Saint-Bernard et de son monument Bernard de Clairvaux de Dijon, du palais des ducs de Bourgogne du centre historique de Dijon, ainsi que du Château et basilique de Fontaine-lès-Dijon ou est né Bernard de Clairvaux, elle fait office d'annexe commerciale dijonnaise de l'Abbaye de Clairvaux (cellier, grange monastique, grenier, commerce, avec réfectoire et dortoir pour les moines à l'étage ...) pour entreposer et commercialiser la production des domaines locaux de l’abbaye (céréales, foin, vins du vignoble de Bourgogne...). 
-Il est acquis depuis la Révolution française par le Conseil départemental de la Côte-d'Or voisin. La partie subsistante du cellier  fait office à ce jour de salle municipale louée pour des événements et spectacles divers, avec deux salles voûtées de 300 m²[4],[5].
+Il est acquis depuis la Révolution française par le Conseil départemental de la Côte-d'Or voisin. La partie subsistante du cellier  fait office à ce jour de salle municipale louée pour des événements et spectacles divers, avec deux salles voûtées de 300 m²,.
 </t>
         </is>
       </c>
